--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305310.9731944908</v>
+        <v>319037.3313319089</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26319,7 @@
         <v>96756.66497830176</v>
       </c>
       <c r="D2" t="n">
-        <v>96756.66497830175</v>
+        <v>96756.66497830176</v>
       </c>
       <c r="E2" t="n">
         <v>102888.4933348772</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26525,10 +26527,10 @@
         <v>9375.362212578562</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578548</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="E6" t="n">
-        <v>-65677.83877193095</v>
+        <v>-65677.83877193101</v>
       </c>
       <c r="F6" t="n">
         <v>67422.16122806906</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>319037.3313319089</v>
+        <v>193927.4325344322</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578562</v>
+        <v>-5775.311757456202</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578562</v>
+        <v>-5775.311757456202</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578562</v>
+        <v>-5775.311757456202</v>
       </c>
       <c r="E6" t="n">
-        <v>-65677.83877193101</v>
+        <v>-80487.85561104491</v>
       </c>
       <c r="F6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="G6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="H6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="I6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="J6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="K6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="L6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="M6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="N6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="O6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
       <c r="P6" t="n">
-        <v>67422.16122806906</v>
+        <v>52612.14438895516</v>
       </c>
     </row>
   </sheetData>
